--- a/results/multilabel_powerset/41470ps/automl.xlsx
+++ b/results/multilabel_powerset/41470ps/automl.xlsx
@@ -864,7 +864,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:09:39 (03:14:13 Â± 01:29:18)</t>
+          <t>00:08:00 (00:08:46 Â± 00:00:17)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/results/multilabel_powerset/41470ps/automl.xlsx
+++ b/results/multilabel_powerset/41470ps/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.741 (0.730 Â± 0.012)</t>
+          <t>0.741 (0.730 ± 0.012)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:51 (00:08:30 Â± 00:04:46)</t>
+          <t>00:04:51 (00:08:30 ± 00:04:46)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:10 Â± 00:00:05)</t>
+          <t>00:00:03 (00:00:10 ± 00:00:05)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.738 (0.705 Â± 0.014)</t>
+          <t>0.738 (0.705 ± 0.014)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:44 (00:02:21 Â± 00:01:50)</t>
+          <t>00:00:44 (00:02:21 ± 00:01:50)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.695 (0.663 Â± 0.023)</t>
+          <t>0.695 (0.663 ± 0.023)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:03:25 (00:03:56 Â± 00:00:38)</t>
+          <t>00:03:25 (00:03:56 ± 00:00:38)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:09 (00:00:09 Â± 00:00:00)</t>
+          <t>00:00:09 (00:00:09 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.746 (0.533 Â± 0.283)</t>
+          <t>0.746 (0.533 ± 0.283)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:08 (00:05:14 Â± 00:00:03)</t>
+          <t>00:05:08 (00:05:14 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.764 (0.718 Â± 0.015)</t>
+          <t>0.764 (0.718 ± 0.015)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:06 Â± 00:00:04)</t>
+          <t>00:05:00 (00:05:06 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:04 Â± 00:00:02)</t>
+          <t>00:00:00 (00:00:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -655,17 +655,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.745 (0.717 Â± 0.016)</t>
+          <t>0.745 (0.717 ± 0.016)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:03 Â± 00:00:04)</t>
+          <t>00:05:00 (00:05:03 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -699,17 +699,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.565 (0.489 Â± 0.047)</t>
+          <t>0.565 (0.489 ± 0.047)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:03 (00:05:07 Â± 00:00:00)</t>
+          <t>00:05:03 (00:05:07 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.663 (0.337 Â± 0.325)</t>
+          <t>0.663 (0.337 ± 0.325)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:03:25 (00:03:43 Â± 00:00:17)</t>
+          <t>00:03:25 (00:03:43 ± 00:00:17)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -763,17 +763,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.308 (0.173 Â± 0.081)</t>
+          <t>0.308 (0.173 ± 0.081)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:11 (00:00:14 Â± 00:00:02)</t>
+          <t>00:00:11 (00:00:14 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.717 (0.687 Â± 0.019)</t>
+          <t>0.717 (0.687 ± 0.019)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:02:29 (00:02:56 Â± 00:00:11)</t>
+          <t>00:02:29 (00:02:56 ± 00:00:11)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -827,17 +827,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.733 (0.708 Â± 0.019)</t>
+          <t>0.733 (0.708 ± 0.019)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:02:30 (00:04:33 Â± 00:00:41)</t>
+          <t>00:02:30 (00:04:33 ± 00:00:41)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -859,17 +859,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.752 (0.713 Â± 0.018)</t>
+          <t>0.752 (0.713 ± 0.018)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:08:00 (00:08:46 Â± 00:00:17)</t>
+          <t>00:08:00 (00:08:46 ± 00:00:17)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.734 (0.702 Â± 0.019)</t>
+          <t>0.734 (0.702 ± 0.019)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:05 (00:06:10 Â± 00:01:52)</t>
+          <t>00:05:05 (00:06:10 ± 00:01:52)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
